--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-22102703\AppData\Local\nvim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이진표\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718577C-CB9F-4F43-882E-B2C343C9785B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0E87C-5653-49FC-8544-1C31C4F352E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-72" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>C:\Users\NB-22102703\.vrapperrc</t>
   </si>
   <si>
     <t>이클립스 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\이진표\.vscode\argv.json</t>
+  </si>
+  <si>
+    <t>, "disable-hardware-acceleration": true</t>
+  </si>
+  <si>
+    <t>하드웨어 가속 비활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,22 +415,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이진표\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0E87C-5653-49FC-8544-1C31C4F352E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA43AD-51C9-4076-873B-656F284C7DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-72" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>C:\Users\NB-22102703\.vrapperrc</t>
-  </si>
-  <si>
     <t>이클립스 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,6 +38,10 @@
   </si>
   <si>
     <t>하드웨어 가속 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\NB-22102703\.vrapperrc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,34 +419,34 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이진표\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA43AD-51C9-4076-873B-656F284C7DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CDC9A2-FCC2-402B-B4BC-F123912F3ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-72" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>이클립스 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>C:\Users\NB-22102703\.vrapperrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsidian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 vault 의 .obsidian.vimrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; ~/.obsidian.vimrc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -416,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C17"/>
+  <dimension ref="B1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -444,9 +457,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이진표\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CDC9A2-FCC2-402B-B4BC-F123912F3ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8A296-6AF0-4BF4-B51A-03F356A22232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-72" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>이클립스 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>-&gt; ~/.obsidian.vimrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wezterm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\이진표\wezterm.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,52 +437,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C23"/>
+  <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이진표\AppData\Local\nvim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinpyo\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8A296-6AF0-4BF4-B51A-03F356A22232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9329A883-B610-4E15-9271-4C12AC31F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinpyo\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9329A883-B610-4E15-9271-4C12AC31F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9168206-12C7-44C4-8959-98B308D065E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>이클립스 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\이진표\.vscode\argv.json</t>
-  </si>
-  <si>
     <t>, "disable-hardware-acceleration": true</t>
   </si>
   <si>
@@ -41,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\NB-22102703\.vrapperrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>obsidian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,7 +54,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\이진표\wezterm.lua</t>
+    <t>C:\Users\jinpyo\.vrapperrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\jinpyo\.vscode\argv.json</t>
+  </si>
+  <si>
+    <t>C:\Users\jinpyo\wezterm.lua</t>
+  </si>
+  <si>
+    <t>Dbeaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vrapper.sourceforge.net/update-site/stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\MyProgramFiles\msys64\home\jinpyo\.zshrc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +99,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,15 +131,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,67 +470,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C27"/>
+  <dimension ref="B1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{1D91902A-F6BC-4CDF-A019-B5C7ECE43381}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinpyo\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9168206-12C7-44C4-8959-98B308D065E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF2F2F8-E6F0-4E85-B35C-CB7ABCA507D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-36" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>이클립스 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,22 @@
   </si>
   <si>
     <t>C:\MyProgramFiles\msys64\home\jinpyo\.zshrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://matf.github.io/relativenumberruler/updatesite/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linenumber ruler: 상대번호 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\MyProgramFiles\msys64\home\jinpyo\.tmux.conf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +119,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,11 +158,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -470,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C35"/>
+  <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -498,6 +525,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>2</v>
@@ -546,15 +583,29 @@
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{1D91902A-F6BC-4CDF-A019-B5C7ECE43381}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{C522A8C1-EFC8-4E54-ACB9-95F930983789}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinpyo\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF2F2F8-E6F0-4E85-B35C-CB7ABCA507D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D586F5-74DF-487D-8E1E-5B90A7F0D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-36" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -500,7 +511,7 @@
   <dimension ref="B1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinpyo\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D586F5-74DF-487D-8E1E-5B90A7F0D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CC6DB-A1FE-46ED-8764-0658B6AC891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-36" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -177,7 +177,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -510,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W16" activeCellId="1" sqref="S30 W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -600,7 +599,7 @@
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/각 파일 경로.xlsx
+++ b/각 파일 경로.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinpyo\AppData\Local\nvim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CC6DB-A1FE-46ED-8764-0658B6AC891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A8A8E-AEB3-4ECF-9989-46A559996B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-36" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="B1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W16" activeCellId="1" sqref="S30 W16"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
